--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value404.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value404.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.146107603781172</v>
+        <v>3.205810785293579</v>
       </c>
       <c r="B1">
-        <v>1.404221073943043</v>
+        <v>2.714761018753052</v>
       </c>
       <c r="C1">
-        <v>1.950405441210533</v>
+        <v>2.005010366439819</v>
       </c>
       <c r="D1">
-        <v>3.651740871741315</v>
+        <v>1.866878986358643</v>
       </c>
       <c r="E1">
-        <v>1.475527329135857</v>
+        <v>1.724422693252563</v>
       </c>
     </row>
   </sheetData>
